--- a/reports/resnet18_23_no_MMTM/prediction/0/probability_train_0.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/0/probability_train_0.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2203922271728516</v>
+        <v>0.243683397769928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7796077728271484</v>
+        <v>0.7563165426254272</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2077454775571823</v>
+        <v>0.1833669245243073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7922544479370117</v>
+        <v>0.8166330456733704</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5656614899635315</v>
+        <v>0.4912689626216888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4343385696411133</v>
+        <v>0.5087310671806335</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4157339930534363</v>
+        <v>0.3920984268188477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5842660069465637</v>
+        <v>0.6079015731811523</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2089441269636154</v>
+        <v>0.1837404668331146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7910558581352234</v>
+        <v>0.816259503364563</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8040616512298584</v>
+        <v>0.8085447549819946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195938378572464</v>
+        <v>0.1914552748203278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1301194131374359</v>
+        <v>0.1425129324197769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8698805570602417</v>
+        <v>0.8574870824813843</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3546980023384094</v>
+        <v>0.2983762621879578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6453019976615906</v>
+        <v>0.7016236782073975</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05655320361256599</v>
+        <v>0.04455182701349258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9434468150138855</v>
+        <v>0.9554482102394104</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08925038576126099</v>
+        <v>0.1046642959117889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.910749614238739</v>
+        <v>0.8953356742858887</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.217262402176857</v>
+        <v>0.1742963492870331</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7827376127243042</v>
+        <v>0.8257036805152893</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9445227384567261</v>
+        <v>0.9595503211021423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0554773211479187</v>
+        <v>0.04044970497488976</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1038202941417694</v>
+        <v>0.1020869538187981</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8961796760559082</v>
+        <v>0.8979130387306213</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2809033691883087</v>
+        <v>0.3044023215770721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7190966606140137</v>
+        <v>0.695597767829895</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6026479601860046</v>
+        <v>0.5323967933654785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3973520994186401</v>
+        <v>0.4676032066345215</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9681378602981567</v>
+        <v>0.9616114497184753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03186213970184326</v>
+        <v>0.03838854283094406</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1454657316207886</v>
+        <v>0.1538998782634735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8545342683792114</v>
+        <v>0.8461000919342041</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7901170253753662</v>
+        <v>0.7988604307174683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2098830044269562</v>
+        <v>0.2011395990848541</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.888559103012085</v>
+        <v>0.9023675918579102</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1114409044384956</v>
+        <v>0.09763236343860626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1199408322572708</v>
+        <v>0.1431648433208466</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8800591230392456</v>
+        <v>0.8568351268768311</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2200485616922379</v>
+        <v>0.1772047281265259</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7799514532089233</v>
+        <v>0.8227952718734741</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6692176461219788</v>
+        <v>0.6303760409355164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3307823538780212</v>
+        <v>0.3696239590644836</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2973583936691284</v>
+        <v>0.3395563364028931</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7026416063308716</v>
+        <v>0.6604436635971069</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08274205029010773</v>
+        <v>0.08788217604160309</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9172579050064087</v>
+        <v>0.9121178388595581</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2784138023853302</v>
+        <v>0.3152084052562714</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7215862274169922</v>
+        <v>0.6847915649414062</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6626511812210083</v>
+        <v>0.6886272430419922</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3373488485813141</v>
+        <v>0.3113727271556854</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9647592306137085</v>
+        <v>0.9746936559677124</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03524084389209747</v>
+        <v>0.02530636824667454</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1561358571052551</v>
+        <v>0.1843491196632385</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8438642024993896</v>
+        <v>0.8156508207321167</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.7589828968048096</v>
+        <v>0.8091974258422852</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2410170882940292</v>
+        <v>0.1908025592565536</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.975496768951416</v>
+        <v>0.9778604507446289</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02450317330658436</v>
+        <v>0.02213958650827408</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4807882606983185</v>
+        <v>0.4767568707466125</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5192117691040039</v>
+        <v>0.5232431888580322</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.08617974817752838</v>
+        <v>0.0970722958445549</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9138202667236328</v>
+        <v>0.9029276371002197</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05496661365032196</v>
+        <v>0.04361904039978981</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9450334310531616</v>
+        <v>0.9563809037208557</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08018026500940323</v>
+        <v>0.09260223805904388</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9198197722434998</v>
+        <v>0.9073977470397949</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.7329381108283997</v>
+        <v>0.700572669506073</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2670618891716003</v>
+        <v>0.299427330493927</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1600390374660492</v>
+        <v>0.1926614046096802</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8399609327316284</v>
+        <v>0.8073385953903198</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1607789397239685</v>
+        <v>0.1337714344263077</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8392210006713867</v>
+        <v>0.8662285804748535</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.299238383769989</v>
+        <v>0.2327924072742462</v>
       </c>
       <c r="C39" t="n">
-        <v>0.700761616230011</v>
+        <v>0.7672075629234314</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.06495577096939087</v>
+        <v>0.07440566271543503</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9350441694259644</v>
+        <v>0.9255943298339844</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6420068740844727</v>
+        <v>0.654338002204895</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3579931259155273</v>
+        <v>0.3456620275974274</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5079471468925476</v>
+        <v>0.4575169086456299</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4920528829097748</v>
+        <v>0.5424830913543701</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1004605442285538</v>
+        <v>0.1073369830846786</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8995394706726074</v>
+        <v>0.8926630020141602</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.839081346988678</v>
+        <v>0.8048219680786133</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1609186381101608</v>
+        <v>0.1951780915260315</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1626071035861969</v>
+        <v>0.1475502252578735</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8373929262161255</v>
+        <v>0.8524497747421265</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1773048937320709</v>
+        <v>0.1729153990745544</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8226951360702515</v>
+        <v>0.8270845413208008</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1026851087808609</v>
+        <v>0.09554940462112427</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8973149061203003</v>
+        <v>0.9044505953788757</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5652462244033813</v>
+        <v>0.4682912230491638</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4347537457942963</v>
+        <v>0.5317087769508362</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.7126511931419373</v>
+        <v>0.7236382365226746</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2873488366603851</v>
+        <v>0.2763617634773254</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4490821063518524</v>
+        <v>0.4246718287467957</v>
       </c>
       <c r="C50" t="n">
-        <v>0.55091792345047</v>
+        <v>0.5753281712532043</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1916840076446533</v>
+        <v>0.2021084874868393</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8083159923553467</v>
+        <v>0.7978914976119995</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3206622302532196</v>
+        <v>0.2714551091194153</v>
       </c>
       <c r="C52" t="n">
-        <v>0.679337739944458</v>
+        <v>0.7285449504852295</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.7040729522705078</v>
+        <v>0.6794801354408264</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2959270477294922</v>
+        <v>0.3205198347568512</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8770948052406311</v>
+        <v>0.9100906252861023</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1229051724076271</v>
+        <v>0.08990941196680069</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9607031345367432</v>
+        <v>0.959720253944397</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03929686546325684</v>
+        <v>0.04027967900037766</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4313576221466064</v>
+        <v>0.3502494692802429</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5686423778533936</v>
+        <v>0.6497505307197571</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0699445828795433</v>
+        <v>0.07649577409029007</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9300554394721985</v>
+        <v>0.9235042333602905</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5913625955581665</v>
+        <v>0.5629951953887939</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4086373448371887</v>
+        <v>0.4370048046112061</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.265466719865799</v>
+        <v>0.3526595830917358</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7345332503318787</v>
+        <v>0.6473404169082642</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.09730368852615356</v>
+        <v>0.08035381138324738</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9026963114738464</v>
+        <v>0.9196462035179138</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1284429728984833</v>
+        <v>0.1339278519153595</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8715569972991943</v>
+        <v>0.8660721778869629</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5542476773262024</v>
+        <v>0.4525783061981201</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4457523226737976</v>
+        <v>0.5474216938018799</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6539465188980103</v>
+        <v>0.5957813262939453</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3460535109043121</v>
+        <v>0.4042186737060547</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2743864953517914</v>
+        <v>0.2328943610191345</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7256134748458862</v>
+        <v>0.7671055793762207</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9549031257629395</v>
+        <v>0.9713633060455322</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04509688913822174</v>
+        <v>0.0286366268992424</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9004083275794983</v>
+        <v>0.8970692157745361</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0995916873216629</v>
+        <v>0.1029307842254639</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8042796850204468</v>
+        <v>0.8218586444854736</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1957202851772308</v>
+        <v>0.1781413555145264</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2641415297985077</v>
+        <v>0.1982245445251465</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7358584403991699</v>
+        <v>0.8017754554748535</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2853891253471375</v>
+        <v>0.2172175049781799</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7146108746528625</v>
+        <v>0.7827824950218201</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2016924619674683</v>
+        <v>0.1779623925685883</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7983075380325317</v>
+        <v>0.8220375776290894</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.08162960410118103</v>
+        <v>0.08174744993448257</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9183704257011414</v>
+        <v>0.9182525277137756</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.129632830619812</v>
+        <v>0.1396008431911469</v>
       </c>
       <c r="C72" t="n">
-        <v>0.870367169380188</v>
+        <v>0.8603991866111755</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2571128904819489</v>
+        <v>0.2508775591850281</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7428871393203735</v>
+        <v>0.7491224408149719</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1872412264347076</v>
+        <v>0.1662741303443909</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8127588033676147</v>
+        <v>0.8337259292602539</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2518154680728912</v>
+        <v>0.2248124629259109</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7481845617294312</v>
+        <v>0.775187611579895</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8538479804992676</v>
+        <v>0.7741800546646118</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1461520493030548</v>
+        <v>0.2258199006319046</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5534234046936035</v>
+        <v>0.5941709280014038</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4465765953063965</v>
+        <v>0.4058290719985962</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08545539528131485</v>
+        <v>0.1031063571572304</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9145445823669434</v>
+        <v>0.8968936204910278</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1380983293056488</v>
+        <v>0.1541805267333984</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8619016408920288</v>
+        <v>0.8458194732666016</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1518435478210449</v>
+        <v>0.1438025534152985</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8481564521789551</v>
+        <v>0.8561974763870239</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.03453501686453819</v>
+        <v>0.03478624671697617</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9654649496078491</v>
+        <v>0.9652137756347656</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4987617135047913</v>
+        <v>0.487870842218399</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5012382864952087</v>
+        <v>0.5121291279792786</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1913127601146698</v>
+        <v>0.1601830720901489</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8086872100830078</v>
+        <v>0.8398169279098511</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.04641593247652054</v>
+        <v>0.05569987371563911</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9535840749740601</v>
+        <v>0.9443001747131348</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6547988057136536</v>
+        <v>0.6333181262016296</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3452011942863464</v>
+        <v>0.3666818737983704</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08186626434326172</v>
+        <v>0.0849338173866272</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9181337356567383</v>
+        <v>0.9150661826133728</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1201656609773636</v>
+        <v>0.1235678493976593</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8798342943191528</v>
+        <v>0.8764321804046631</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.04300285130739212</v>
+        <v>0.04331745579838753</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9569970965385437</v>
+        <v>0.956682562828064</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1132696121931076</v>
+        <v>0.1197409704327583</v>
       </c>
       <c r="C89" t="n">
-        <v>0.886730432510376</v>
+        <v>0.8802590370178223</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2886379659175873</v>
+        <v>0.3138772249221802</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7113620042800903</v>
+        <v>0.6861227750778198</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05954664200544357</v>
+        <v>0.0583651028573513</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9404532909393311</v>
+        <v>0.9416348934173584</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.7293466329574585</v>
+        <v>0.737423300743103</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2706533372402191</v>
+        <v>0.2625766694545746</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.2157098650932312</v>
+        <v>0.1815058588981628</v>
       </c>
       <c r="C93" t="n">
-        <v>0.784290075302124</v>
+        <v>0.8184941411018372</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.08834820985794067</v>
+        <v>0.0963304191827774</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9116518497467041</v>
+        <v>0.9036695957183838</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3385754227638245</v>
+        <v>0.3078923523426056</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6614245772361755</v>
+        <v>0.6921076774597168</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.8980656862258911</v>
+        <v>0.8973402976989746</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1019343286752701</v>
+        <v>0.1026596873998642</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.7593798041343689</v>
+        <v>0.7936593294143677</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2406201958656311</v>
+        <v>0.2063406705856323</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.3223152160644531</v>
+        <v>0.3078819513320923</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6776847839355469</v>
+        <v>0.6921180486679077</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.159346729516983</v>
+        <v>0.1601556837558746</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8406533002853394</v>
+        <v>0.839844286441803</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0751722976565361</v>
+        <v>0.06622940301895142</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9248276948928833</v>
+        <v>0.9337705969810486</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3980039358139038</v>
+        <v>0.5217130184173584</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6019960641860962</v>
+        <v>0.4782869815826416</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.3171018064022064</v>
+        <v>0.2354569137096405</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6828981637954712</v>
+        <v>0.7645430564880371</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.5612194538116455</v>
+        <v>0.4829020500183105</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4387805163860321</v>
+        <v>0.5170979499816895</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.06895096600055695</v>
+        <v>0.07777202129364014</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9310489892959595</v>
+        <v>0.9222279787063599</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3875744044780731</v>
+        <v>0.2870866060256958</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6124255657196045</v>
+        <v>0.7129133939743042</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.3053086996078491</v>
+        <v>0.2438168376684189</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6946913003921509</v>
+        <v>0.7561831474304199</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1044372990727425</v>
+        <v>0.09265769273042679</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8955627083778381</v>
+        <v>0.9073423147201538</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.6586167812347412</v>
+        <v>0.62654709815979</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3413832485675812</v>
+        <v>0.37345290184021</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2539210617542267</v>
+        <v>0.2951359152793884</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7460789084434509</v>
+        <v>0.7048640251159668</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2580345571041107</v>
+        <v>0.2618916928768158</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7419654726982117</v>
+        <v>0.7381083369255066</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9072710275650024</v>
+        <v>0.9222100377082825</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09272900223731995</v>
+        <v>0.07778993248939514</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.4811574816703796</v>
+        <v>0.5831446647644043</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5188425183296204</v>
+        <v>0.4168552756309509</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.3964171409606934</v>
+        <v>0.342774361371994</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6035828590393066</v>
+        <v>0.6572256088256836</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4357248544692993</v>
+        <v>0.3862284421920776</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5642751455307007</v>
+        <v>0.6137714982032776</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9341394901275635</v>
+        <v>0.9361538887023926</v>
       </c>
       <c r="C115" t="n">
-        <v>0.06586053222417831</v>
+        <v>0.06384608894586563</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.2535909116268158</v>
+        <v>0.2476357966661453</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7464090585708618</v>
+        <v>0.7523641586303711</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.2883328199386597</v>
+        <v>0.2865454852581024</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7116671800613403</v>
+        <v>0.7134546041488647</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1081901043653488</v>
+        <v>0.1289222687482834</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8918099403381348</v>
+        <v>0.8710777759552002</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.104514442384243</v>
+        <v>0.1251883208751678</v>
       </c>
       <c r="C119" t="n">
-        <v>0.895485520362854</v>
+        <v>0.8748116493225098</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1965709924697876</v>
+        <v>0.1922521889209747</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8034290075302124</v>
+        <v>0.8077478408813477</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.08306682109832764</v>
+        <v>0.07119353860616684</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9169331789016724</v>
+        <v>0.9288064241409302</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1931988596916199</v>
+        <v>0.1564089953899384</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8068011403083801</v>
+        <v>0.843591034412384</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2529939413070679</v>
+        <v>0.2366963922977448</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7470060586929321</v>
+        <v>0.7633036375045776</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.2680990695953369</v>
+        <v>0.2579797506332397</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7319009304046631</v>
+        <v>0.7420202493667603</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.4994460940361023</v>
+        <v>0.5252420902252197</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5005539059638977</v>
+        <v>0.4747578501701355</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.8825987577438354</v>
+        <v>0.8745150566101074</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1174012869596481</v>
+        <v>0.1254849880933762</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1988153010606766</v>
+        <v>0.1809149086475372</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8011847138404846</v>
+        <v>0.8190851211547852</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9527168273925781</v>
+        <v>0.9586377739906311</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04728315025568008</v>
+        <v>0.04136220365762711</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.1588577926158905</v>
+        <v>0.1321944892406464</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8411421775817871</v>
+        <v>0.8678054809570312</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1281910836696625</v>
+        <v>0.1028970405459404</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8718089461326599</v>
+        <v>0.897102952003479</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.689953088760376</v>
+        <v>0.790581226348877</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3100469708442688</v>
+        <v>0.2094187885522842</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3991190195083618</v>
+        <v>0.3726924061775208</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6008809804916382</v>
+        <v>0.6273075938224792</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.8482586741447449</v>
+        <v>0.8983376026153564</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1517413556575775</v>
+        <v>0.101662389934063</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1281278431415558</v>
+        <v>0.1388770043849945</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8718721866607666</v>
+        <v>0.8611229658126831</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.2939180731773376</v>
+        <v>0.2774173021316528</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7060819864273071</v>
+        <v>0.7225826978683472</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.2121608555316925</v>
+        <v>0.1847929507493973</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7878391146659851</v>
+        <v>0.8152071237564087</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6620690822601318</v>
+        <v>0.6888390779495239</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3379309773445129</v>
+        <v>0.3111609816551208</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9587233066558838</v>
+        <v>0.9601222276687622</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0412767231464386</v>
+        <v>0.03987773507833481</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1738652288913727</v>
+        <v>0.2059512734413147</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8261346817016602</v>
+        <v>0.7940487265586853</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.8149557709693909</v>
+        <v>0.8035068511962891</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1850442439317703</v>
+        <v>0.1964931786060333</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.160257488489151</v>
+        <v>0.1199245452880859</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8397424817085266</v>
+        <v>0.8800754547119141</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.8226014375686646</v>
+        <v>0.8132240176200867</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1773985624313354</v>
+        <v>0.1867759972810745</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1519618928432465</v>
+        <v>0.1325992941856384</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8480380773544312</v>
+        <v>0.8674007654190063</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.2719451189041138</v>
+        <v>0.2681571543216705</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7280548810958862</v>
+        <v>0.7318428754806519</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.2664783000946045</v>
+        <v>0.2273998260498047</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7335216999053955</v>
+        <v>0.7726002335548401</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.09179134666919708</v>
+        <v>0.09215282648801804</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9082086086273193</v>
+        <v>0.9078471660614014</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.1790120303630829</v>
+        <v>0.1650606542825699</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8209879398345947</v>
+        <v>0.8349393606185913</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1479634344577789</v>
+        <v>0.1289985328912735</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8520365953445435</v>
+        <v>0.8710014820098877</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9630916714668274</v>
+        <v>0.9663091897964478</v>
       </c>
       <c r="C149" t="n">
-        <v>0.03690827637910843</v>
+        <v>0.03369084745645523</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.6335036158561707</v>
+        <v>0.6144183874130249</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3664963841438293</v>
+        <v>0.3855815827846527</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.5577489733695984</v>
+        <v>0.5487533807754517</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4422509968280792</v>
+        <v>0.4512466192245483</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.2925409376621246</v>
+        <v>0.2787752151489258</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7074590921401978</v>
+        <v>0.7212247848510742</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.07857397198677063</v>
+        <v>0.07857434451580048</v>
       </c>
       <c r="C153" t="n">
-        <v>0.921425998210907</v>
+        <v>0.9214257001876831</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.2759631872177124</v>
+        <v>0.2899209856987</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7240368127822876</v>
+        <v>0.7100790143013</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.1514807641506195</v>
+        <v>0.1083786636590958</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8485192060470581</v>
+        <v>0.8916213512420654</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1588566601276398</v>
+        <v>0.1413600444793701</v>
       </c>
       <c r="C156" t="n">
-        <v>0.8411432504653931</v>
+        <v>0.8586399555206299</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.3758403658866882</v>
+        <v>0.2431528121232986</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6241596341133118</v>
+        <v>0.7568472027778625</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.07075898349285126</v>
+        <v>0.06813468784093857</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9292410612106323</v>
+        <v>0.9318653345108032</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.2918586134910583</v>
+        <v>0.3106957077980042</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7081413865089417</v>
+        <v>0.6893042922019958</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.2451612651348114</v>
+        <v>0.2777685821056366</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7548387050628662</v>
+        <v>0.722231388092041</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.1239790022373199</v>
+        <v>0.1139356940984726</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8760210275650024</v>
+        <v>0.8860642910003662</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.07257822901010513</v>
+        <v>0.07631438970565796</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9274218082427979</v>
+        <v>0.9236855506896973</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.2203910648822784</v>
+        <v>0.2241085320711136</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7796088457107544</v>
+        <v>0.7758914232254028</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1949065774679184</v>
+        <v>0.2129110246896744</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8050934076309204</v>
+        <v>0.7870889902114868</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.05315018445253372</v>
+        <v>0.05955442786216736</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9468498229980469</v>
+        <v>0.940445601940155</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.7859435081481934</v>
+        <v>0.7523400783538818</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2140565663576126</v>
+        <v>0.2476599365472794</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.2635263800621033</v>
+        <v>0.2824746370315552</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7364736199378967</v>
+        <v>0.7175253629684448</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.4172822833061218</v>
+        <v>0.4191145896911621</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5827177762985229</v>
+        <v>0.5808854103088379</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
